--- a/app/flask_app/ficheros/plantilla.xlsx
+++ b/app/flask_app/ficheros/plantilla.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MSI\Desktop\_whodo\app\flask_app\ficheros\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MSI\Desktop\Nueva carpeta\whodo2\_whodo\app\flask_app\ficheros\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
   <si>
     <t>Precio</t>
   </si>
@@ -38,37 +38,7 @@
     <t>Descripción</t>
   </si>
   <si>
-    <t>lote</t>
-  </si>
-  <si>
-    <t>codigo</t>
-  </si>
-  <si>
-    <t>tipo</t>
-  </si>
-  <si>
     <t>Nombre</t>
-  </si>
-  <si>
-    <t>tele1</t>
-  </si>
-  <si>
-    <t>pc</t>
-  </si>
-  <si>
-    <t>celular</t>
-  </si>
-  <si>
-    <t>bla bla</t>
-  </si>
-  <si>
-    <t>a</t>
-  </si>
-  <si>
-    <t>b</t>
-  </si>
-  <si>
-    <t>v</t>
   </si>
 </sst>
 </file>
@@ -426,92 +396,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:C1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H7" sqref="H7"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
       </c>
       <c r="C1" t="s">
         <v>1</v>
-      </c>
-      <c r="D1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B2">
-        <v>90</v>
-      </c>
-      <c r="C2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D2">
-        <v>500</v>
-      </c>
-      <c r="E2">
-        <v>1000</v>
-      </c>
-      <c r="F2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>7</v>
-      </c>
-      <c r="B3">
-        <v>100</v>
-      </c>
-      <c r="C3" t="s">
-        <v>9</v>
-      </c>
-      <c r="D3">
-        <v>100</v>
-      </c>
-      <c r="E3">
-        <v>1000</v>
-      </c>
-      <c r="F3" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>8</v>
-      </c>
-      <c r="B4">
-        <v>200</v>
-      </c>
-      <c r="C4" t="s">
-        <v>9</v>
-      </c>
-      <c r="D4">
-        <v>200</v>
-      </c>
-      <c r="E4">
-        <v>1000</v>
-      </c>
-      <c r="F4" t="s">
-        <v>12</v>
       </c>
     </row>
   </sheetData>
